--- a/src/Pickles/MIL_pickles/Output/AN220/AN220_TestScript_Desktop_Admin_Validation_UR.xlsx
+++ b/src/Pickles/MIL_pickles/Output/AN220/AN220_TestScript_Desktop_Admin_Validation_UR.xlsx
@@ -34,7 +34,7 @@
     <x:t>Tags:</x:t>
   </x:si>
   <x:si>
-    <x:t>@UR, @UR029, @DesktopOnly, @Admin</x:t>
+    <x:t>@UR, @UR029, @DesktopOnly, @Admin, @deprecated</x:t>
   </x:si>
   <x:si>
     <x:t>As a company
@@ -87,7 +87,7 @@
     <x:t>CustomerWorkflowUK</x:t>
   </x:si>
   <x:si>
-    <x:t>@UR, @UR028, @DesktopOnly, @Admin</x:t>
+    <x:t>@UR, @UR028, @DesktopOnly, @Admin, @deprecated</x:t>
   </x:si>
   <x:si>
     <x:t>As a company
@@ -230,7 +230,7 @@
     <x:t>DesktopLicensing</x:t>
   </x:si>
   <x:si>
-    <x:t>@UR, @UR025, @Admin, @DesktopOnly</x:t>
+    <x:t>@UR, @UR025, @Admin, @DesktopOnly, @deprecated</x:t>
   </x:si>
   <x:si>
     <x:t>As a company
@@ -624,7 +624,7 @@
     <x:t>@UR, @UR024, @Admin, @DesktopOnly</x:t>
   </x:si>
   <x:si>
-    <x:t>As an adminstrator of the store website
+    <x:t>As an administrator of the store website
 I want to set the version that the update message checks against
 So that the update message can be disabled
 As a user
@@ -848,7 +848,7 @@
     <x:t>I am logged in as a website administrator</x:t>
   </x:si>
   <x:si>
-    <x:t>I register a new user on the CD user registration page with email and passowrd</x:t>
+    <x:t>I register a new user on the CD user registration page with email and password</x:t>
   </x:si>
   <x:si>
     <x:t>I receive a User Registered confirmation page with the details of email</x:t>
